--- a/Paletas SLD con Variables Censo.xlsx
+++ b/Paletas SLD con Variables Censo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\SLD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Estilos_SLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B6A936-62AD-43F6-BABB-E26BE023C6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E2A9BD-2DBD-4333-973C-7CC9EB72BC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{A2C3E54F-AEFF-4292-BB0E-BA15B43AB867}"/>
+    <workbookView xWindow="3420" yWindow="1560" windowWidth="17325" windowHeight="9120" xr2:uid="{A2C3E54F-AEFF-4292-BB0E-BA15B43AB867}"/>
   </bookViews>
   <sheets>
     <sheet name="fisicas " sheetId="1" r:id="rId1"/>
@@ -2102,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27668500-AFBD-4603-A2FE-CB06671649B2}">
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCE3370-B585-445E-830C-E4B3A821D814}">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
